--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-0.1/percents/scores-5.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-0.1/percents/scores-5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,9 +52,6 @@
     <t>evil</t>
   </si>
   <si>
-    <t>annoying</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -67,24 +64,15 @@
     <t>worse</t>
   </si>
   <si>
-    <t>rarely</t>
-  </si>
-  <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>dangerously</t>
+    <t>destroying</t>
   </si>
   <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>frustrating</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
@@ -94,7 +82,7 @@
     <t>dangerous</t>
   </si>
   <si>
-    <t>addicted</t>
+    <t>[UNK]</t>
   </si>
   <si>
     <t>0.95-negative</t>
@@ -112,52 +100,37 @@
     <t>best</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>excellent</t>
+    <t>relevant</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>timely</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>decent</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>fantastic</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>true</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>well</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>documentary</t>
   </si>
   <si>
     <t>social</t>
@@ -539,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS23"/>
+  <dimension ref="A1:BS18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,28 +520,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="S1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AB1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AT1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BC1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="BL1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -770,7 +743,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02074146347191084</v>
+        <v>0.0208557758707955</v>
       </c>
       <c r="C3">
         <v>17</v>
@@ -791,16 +764,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>0.01256529409636818</v>
+        <v>0.01035379215274839</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -812,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.02458985948719531</v>
+        <v>0.02472572833782046</v>
       </c>
       <c r="U3">
         <v>17</v>
@@ -839,16 +812,16 @@
         <v>0</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AC3">
-        <v>0.1521474673653513</v>
+        <v>0.1565443646663593</v>
       </c>
       <c r="AD3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -860,13 +833,13 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.03021443827876492</v>
+        <v>0.03038181271270311</v>
       </c>
       <c r="AM3">
         <v>17</v>
@@ -887,16 +860,16 @@
         <v>0</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AU3">
-        <v>0.1196959552013103</v>
+        <v>0.1280327289717496</v>
       </c>
       <c r="AV3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AW3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -908,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.03921376434527631</v>
+        <v>0.3601443280213806</v>
       </c>
       <c r="BE3">
         <v>17</v>
@@ -935,16 +908,16 @@
         <v>0</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="BM3">
-        <v>0.1029422570800873</v>
+        <v>0.1129484744463225</v>
       </c>
       <c r="BN3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BO3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -956,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -964,7 +937,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.004600343969979667</v>
+        <v>0.004625773552223739</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -985,16 +958,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.007995059474130338</v>
+        <v>0.009242534023377902</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1006,13 +979,13 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.005422280078652045</v>
+        <v>0.005452600584516499</v>
       </c>
       <c r="U4">
         <v>3</v>
@@ -1033,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AC4">
-        <v>0.09906002916349571</v>
+        <v>0.1422684788734457</v>
       </c>
       <c r="AD4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1054,13 +1027,13 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.006623571314403984</v>
+        <v>0.006661040093252073</v>
       </c>
       <c r="AM4">
         <v>3</v>
@@ -1081,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AU4">
-        <v>0.08381754147211802</v>
+        <v>0.1195364661877864</v>
       </c>
       <c r="AV4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX4">
         <v>1</v>
@@ -1102,13 +1075,13 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.008545637291607086</v>
+        <v>0.07943239063860384</v>
       </c>
       <c r="BE4">
         <v>3</v>
@@ -1129,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BM4">
-        <v>0.07594832304843029</v>
+        <v>0.1075099564182838</v>
       </c>
       <c r="BN4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BO4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -1150,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1158,7 +1131,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.003447406862698868</v>
+        <v>0.003466487672325755</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1179,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.006861054162928521</v>
+        <v>0.006929058025691379</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -1206,7 +1179,7 @@
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.004053167263756098</v>
+        <v>0.004075948602137644</v>
       </c>
       <c r="U5">
         <v>2</v>
@@ -1227,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AC5">
-        <v>0.08618858673235234</v>
+        <v>0.1083884094884688</v>
       </c>
       <c r="AD5">
         <v>5</v>
@@ -1254,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.004938509388378203</v>
+        <v>0.004966699191862713</v>
       </c>
       <c r="AM5">
         <v>2</v>
@@ -1275,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AU5">
-        <v>0.07532511588852152</v>
+        <v>0.0960913392566593</v>
       </c>
       <c r="AV5">
         <v>5</v>
@@ -1302,7 +1275,7 @@
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.00635505678777357</v>
+        <v>0.05938153796840549</v>
       </c>
       <c r="BE5">
         <v>2</v>
@@ -1323,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BM5">
-        <v>0.06971664654674696</v>
+        <v>0.08958549935043689</v>
       </c>
       <c r="BN5">
         <v>5</v>
@@ -1352,7 +1325,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.003447406862698868</v>
+        <v>0.003466487672325755</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1373,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.005715644392583181</v>
+        <v>0.005772320026848118</v>
       </c>
       <c r="L6">
         <v>4</v>
@@ -1400,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.004053167263756098</v>
+        <v>0.004075948602137644</v>
       </c>
       <c r="U6">
         <v>2</v>
@@ -1421,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AC6">
-        <v>0.07278325480878162</v>
+        <v>0.09144837479598036</v>
       </c>
       <c r="AD6">
         <v>4</v>
@@ -1448,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.004938509388378203</v>
+        <v>0.004966699191862713</v>
       </c>
       <c r="AM6">
         <v>2</v>
@@ -1469,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AU6">
-        <v>0.06619645317332294</v>
+        <v>0.08436877579109577</v>
       </c>
       <c r="AV6">
         <v>4</v>
@@ -1496,7 +1469,7 @@
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.00635505678777357</v>
+        <v>0.05938153796840549</v>
       </c>
       <c r="BE6">
         <v>2</v>
@@ -1517,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BM6">
-        <v>0.06279589403675573</v>
+        <v>0.08062327081651342</v>
       </c>
       <c r="BN6">
         <v>4</v>
@@ -1546,7 +1519,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.003447406862698868</v>
+        <v>0.003466487672325755</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1567,16 +1540,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.00569283547429613</v>
+        <v>0.004615582028004855</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1588,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.004053167263756098</v>
+        <v>0.004075948602137644</v>
       </c>
       <c r="U7">
         <v>2</v>
@@ -1615,16 +1588,16 @@
         <v>0</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AC7">
-        <v>0.07171547582392687</v>
+        <v>0.07450834010349194</v>
       </c>
       <c r="AD7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1636,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.004938509388378203</v>
+        <v>0.004966699191862713</v>
       </c>
       <c r="AM7">
         <v>2</v>
@@ -1663,16 +1636,16 @@
         <v>0</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AU7">
-        <v>0.06492397891011877</v>
+        <v>0.07264621232553221</v>
       </c>
       <c r="AV7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX7">
         <v>1</v>
@@ -1684,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.00635505678777357</v>
+        <v>0.05938153796840549</v>
       </c>
       <c r="BE7">
         <v>2</v>
@@ -1711,16 +1684,16 @@
         <v>0</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="BM7">
-        <v>0.06141774202013992</v>
+        <v>0.07166104228258996</v>
       </c>
       <c r="BN7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BO7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP7">
         <v>1</v>
@@ -1732,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1740,7 +1713,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.003447406862698868</v>
+        <v>0.003466487672325755</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1761,16 +1734,16 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.00457023462223784</v>
+        <v>0.003458844029161593</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1788,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.004053167263756098</v>
+        <v>0.004075948602137644</v>
       </c>
       <c r="U8">
         <v>2</v>
@@ -1809,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AC8">
-        <v>0.05937792288521087</v>
+        <v>0.05756830541100352</v>
       </c>
       <c r="AD8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -1836,7 +1809,7 @@
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.004938509388378203</v>
+        <v>0.004966699191862713</v>
       </c>
       <c r="AM8">
         <v>2</v>
@@ -1857,16 +1830,16 @@
         <v>0</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AU8">
-        <v>0.05706779045812435</v>
+        <v>0.06092364885996866</v>
       </c>
       <c r="AV8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX8">
         <v>1</v>
@@ -1884,7 +1857,7 @@
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.00635505678777357</v>
+        <v>0.05938153796840549</v>
       </c>
       <c r="BE8">
         <v>2</v>
@@ -1905,16 +1878,16 @@
         <v>0</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="BM8">
-        <v>0.0558751415267645</v>
+        <v>0.06269881374866651</v>
       </c>
       <c r="BN8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP8">
         <v>1</v>
@@ -1934,7 +1907,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.003447406862698868</v>
+        <v>0.003409637835484787</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1952,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.003424824851892498</v>
+        <v>0.003413364159688818</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -1976,13 +1949,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.004053167263756098</v>
+        <v>0.003805911877143045</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -2000,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AC9">
-        <v>0.04597259096164014</v>
+        <v>0.05490415651142876</v>
       </c>
       <c r="AD9">
         <v>2</v>
@@ -2024,13 +1997,13 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.004938509388378203</v>
+        <v>0.004385081630335883</v>
       </c>
       <c r="AM9">
         <v>2</v>
@@ -2048,13 +2021,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AU9">
-        <v>0.04793912774292577</v>
+        <v>0.05769734817836834</v>
       </c>
       <c r="AV9">
         <v>2</v>
@@ -2072,13 +2045,13 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.00635505678777357</v>
+        <v>0.0495488666438537</v>
       </c>
       <c r="BE9">
         <v>2</v>
@@ -2096,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="BM9">
-        <v>0.04895438901677327</v>
+        <v>0.05917510324278172</v>
       </c>
       <c r="BN9">
         <v>2</v>
@@ -2120,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2128,13 +2101,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.003390384566981243</v>
+        <v>0.002307201792427772</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2146,19 +2119,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.003424824851892498</v>
+        <v>0.002302106030318331</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2176,13 +2149,13 @@
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.003782311359097376</v>
+        <v>0.00269929661975879</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -2194,19 +2167,19 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AC10">
-        <v>0.04597259096164014</v>
+        <v>0.04062827071851511</v>
       </c>
       <c r="AD10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -2224,13 +2197,13 @@
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.004355127439882494</v>
+        <v>0.003272358290473354</v>
       </c>
       <c r="AM10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -2242,19 +2215,19 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AU10">
-        <v>0.04793912774292577</v>
+        <v>0.04920108539440512</v>
       </c>
       <c r="AV10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX10">
         <v>1</v>
@@ -2272,13 +2245,13 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.005271633169138683</v>
+        <v>0.03933068529820716</v>
       </c>
       <c r="BE10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG10">
         <v>0</v>
@@ -2290,19 +2263,19 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="BM10">
-        <v>0.04895438901677327</v>
+        <v>0.05373658521474305</v>
       </c>
       <c r="BN10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP10">
         <v>1</v>
@@ -2322,7 +2295,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.00229446975541807</v>
+        <v>0.002307201792427772</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2343,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.002279415081547157</v>
+        <v>0.002302106030318331</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -2370,7 +2343,7 @@
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.00268405444886015</v>
+        <v>0.00269929661975879</v>
       </c>
       <c r="U11">
         <v>1</v>
@@ -2391,10 +2364,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AC11">
-        <v>0.03256725903806941</v>
+        <v>0.04062827071851511</v>
       </c>
       <c r="AD11">
         <v>1</v>
@@ -2418,7 +2391,7 @@
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.003253447462352421</v>
+        <v>0.003272358290473354</v>
       </c>
       <c r="AM11">
         <v>1</v>
@@ -2439,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AU11">
-        <v>0.03881046502772719</v>
+        <v>0.04920108539440512</v>
       </c>
       <c r="AV11">
         <v>1</v>
@@ -2466,7 +2439,7 @@
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.004164476283940054</v>
+        <v>0.03933068529820716</v>
       </c>
       <c r="BE11">
         <v>1</v>
@@ -2487,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="BM11">
-        <v>0.04203363650678205</v>
+        <v>0.05373658521474305</v>
       </c>
       <c r="BN11">
         <v>1</v>
@@ -2516,7 +2489,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.00229446975541807</v>
+        <v>0.002307201792427772</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2537,10 +2510,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.002279415081547157</v>
+        <v>0.002302106030318331</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -2564,7 +2537,7 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.00268405444886015</v>
+        <v>0.00269929661975879</v>
       </c>
       <c r="U12">
         <v>1</v>
@@ -2585,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC12">
-        <v>0.03256725903806941</v>
+        <v>0.04062827071851511</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -2612,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.003253447462352421</v>
+        <v>0.003272358290473354</v>
       </c>
       <c r="AM12">
         <v>1</v>
@@ -2633,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AU12">
-        <v>0.03881046502772719</v>
+        <v>0.04920108539440512</v>
       </c>
       <c r="AV12">
         <v>1</v>
@@ -2660,7 +2633,7 @@
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.004164476283940054</v>
+        <v>0.03933068529820716</v>
       </c>
       <c r="BE12">
         <v>1</v>
@@ -2681,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="BM12">
-        <v>0.04203363650678205</v>
+        <v>0.05373658521474305</v>
       </c>
       <c r="BN12">
         <v>1</v>
@@ -2710,7 +2683,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.00229446975541807</v>
+        <v>0.002307201792427772</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2731,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.002279415081547157</v>
+        <v>0.002290736062950137</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2752,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.00268405444886015</v>
+        <v>0.00269929661975879</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -2779,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AC13">
-        <v>0.03256725903806941</v>
+        <v>0.03996223349362142</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -2800,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.003253447462352421</v>
+        <v>0.003272358290473354</v>
       </c>
       <c r="AM13">
         <v>1</v>
@@ -2827,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AU13">
-        <v>0.03881046502772719</v>
+        <v>0.04839451022400505</v>
       </c>
       <c r="AV13">
         <v>1</v>
@@ -2848,13 +2821,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.004164476283940054</v>
+        <v>0.03933068529820716</v>
       </c>
       <c r="BE13">
         <v>1</v>
@@ -2875,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="BM13">
-        <v>0.04203363650678205</v>
+        <v>0.05285565758827186</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2896,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2904,7 +2877,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.00229446975541807</v>
+        <v>0.002307201792427772</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2925,10 +2898,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.002279415081547157</v>
+        <v>0.002279366095581943</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2946,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.00268405444886015</v>
+        <v>0.00269929661975879</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -2973,10 +2946,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AC14">
-        <v>0.03256725903806941</v>
+        <v>0.03929619626872773</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -2994,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.003253447462352421</v>
+        <v>0.003272358290473354</v>
       </c>
       <c r="AM14">
         <v>1</v>
@@ -3021,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AU14">
-        <v>0.03881046502772719</v>
+        <v>0.04758793505360496</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3042,13 +3015,13 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.004164476283940054</v>
+        <v>0.03933068529820716</v>
       </c>
       <c r="BE14">
         <v>1</v>
@@ -3069,10 +3042,10 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="BM14">
-        <v>0.04203363650678205</v>
+        <v>0.05197472996180065</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3090,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3098,7 +3071,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.00229446975541807</v>
+        <v>0.002307201792427772</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3119,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.002279415081547157</v>
+        <v>0.002279366095581943</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3140,13 +3113,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.00268405444886015</v>
+        <v>0.00269929661975879</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -3167,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AC15">
-        <v>0.03256725903806941</v>
+        <v>0.03929619626872773</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3188,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.003253447462352421</v>
+        <v>0.003272358290473354</v>
       </c>
       <c r="AM15">
         <v>1</v>
@@ -3215,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AU15">
-        <v>0.03881046502772719</v>
+        <v>0.04758793505360496</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3236,13 +3209,13 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.004164476283940054</v>
+        <v>0.03933068529820716</v>
       </c>
       <c r="BE15">
         <v>1</v>
@@ -3263,10 +3236,10 @@
         <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="BM15">
-        <v>0.04203363650678205</v>
+        <v>0.05197472996180065</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3284,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3292,7 +3265,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.00229446975541807</v>
+        <v>0.002295831825059579</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3310,13 +3283,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.002279415081547157</v>
+        <v>0.002279366095581943</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3334,13 +3307,13 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.00268405444886015</v>
+        <v>0.00264528927475987</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -3358,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AC16">
-        <v>0.03256725903806941</v>
+        <v>0.03929619626872773</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3382,13 +3355,13 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.003253447462352421</v>
+        <v>0.003156034778167988</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -3406,13 +3379,13 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AU16">
-        <v>0.03881046502772719</v>
+        <v>0.04758793505360496</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3430,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.004164476283940054</v>
+        <v>0.03736415103329679</v>
       </c>
       <c r="BE16">
         <v>1</v>
@@ -3454,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="BM16">
-        <v>0.04203363650678205</v>
+        <v>0.05197472996180065</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3478,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3486,7 +3459,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.00229446975541807</v>
+        <v>0.002079802445063899</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3504,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K17">
-        <v>0.002279415081547157</v>
+        <v>0.002199776324004588</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3528,13 +3501,13 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.00268405444886015</v>
+        <v>0.001619149719780393</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -3552,13 +3525,13 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AC17">
-        <v>0.03256725903806941</v>
+        <v>0.03463393569447189</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3576,13 +3549,13 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.003253447462352421</v>
+        <v>0.0009458880443660369</v>
       </c>
       <c r="AM17">
         <v>1</v>
@@ -3600,13 +3573,13 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AU17">
-        <v>0.03881046502772719</v>
+        <v>0.04194190886080437</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3624,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.004164476283940054</v>
+        <v>0</v>
       </c>
       <c r="BE17">
         <v>1</v>
@@ -3648,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="BM17">
-        <v>0.04203363650678205</v>
+        <v>0.04580823657650227</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3672,39 +3645,15 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:71">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.00229446975541807</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K18">
-        <v>0.002268010622403632</v>
+        <v>0.001608538020858517</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3722,37 +3671,13 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T18">
-        <v>0.00268405444886015</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AC18">
-        <v>0.03203336954564204</v>
+        <v>0</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3770,37 +3695,13 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>1</v>
-      </c>
-      <c r="AK18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL18">
-        <v>0.003253447462352421</v>
-      </c>
-      <c r="AM18">
-        <v>1</v>
-      </c>
-      <c r="AN18">
-        <v>1</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>1</v>
-      </c>
-      <c r="AQ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AU18">
-        <v>0.03817422789612511</v>
+        <v>0</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -3818,37 +3719,13 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>1</v>
-      </c>
-      <c r="BC18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BD18">
-        <v>0.004164476283940054</v>
-      </c>
-      <c r="BE18">
-        <v>1</v>
-      </c>
-      <c r="BF18">
-        <v>1</v>
-      </c>
-      <c r="BG18">
-        <v>0</v>
-      </c>
-      <c r="BH18">
-        <v>1</v>
-      </c>
-      <c r="BI18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ18">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="BM18">
-        <v>0.04134456049847414</v>
+        <v>0</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3866,784 +3743,6 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:71">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.00229446975541807</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19">
-        <v>0.002233797244973057</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>4</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T19">
-        <v>0.00268405444886015</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC19">
-        <v>0.03043170106835994</v>
-      </c>
-      <c r="AD19">
-        <v>1</v>
-      </c>
-      <c r="AE19">
-        <v>1</v>
-      </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>4</v>
-      </c>
-      <c r="AK19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL19">
-        <v>0.003253447462352421</v>
-      </c>
-      <c r="AM19">
-        <v>1</v>
-      </c>
-      <c r="AN19">
-        <v>1</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>1</v>
-      </c>
-      <c r="AQ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU19">
-        <v>0.03626551650131885</v>
-      </c>
-      <c r="AV19">
-        <v>1</v>
-      </c>
-      <c r="AW19">
-        <v>1</v>
-      </c>
-      <c r="AX19">
-        <v>1</v>
-      </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA19">
-        <v>4</v>
-      </c>
-      <c r="BC19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BD19">
-        <v>0.004164476283940054</v>
-      </c>
-      <c r="BE19">
-        <v>1</v>
-      </c>
-      <c r="BF19">
-        <v>1</v>
-      </c>
-      <c r="BG19">
-        <v>0</v>
-      </c>
-      <c r="BH19">
-        <v>1</v>
-      </c>
-      <c r="BI19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ19">
-        <v>0</v>
-      </c>
-      <c r="BL19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BM19">
-        <v>0.03927733247355043</v>
-      </c>
-      <c r="BN19">
-        <v>1</v>
-      </c>
-      <c r="BO19">
-        <v>1</v>
-      </c>
-      <c r="BP19">
-        <v>1</v>
-      </c>
-      <c r="BQ19">
-        <v>0</v>
-      </c>
-      <c r="BR19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:71">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.002283065296274546</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20">
-        <v>0.002176774949255431</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>9</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T20">
-        <v>0.002629883267928406</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC20">
-        <v>0.0277622536062231</v>
-      </c>
-      <c r="AD20">
-        <v>1</v>
-      </c>
-      <c r="AE20">
-        <v>1</v>
-      </c>
-      <c r="AF20">
-        <v>1</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>9</v>
-      </c>
-      <c r="AK20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL20">
-        <v>0.003136771072653279</v>
-      </c>
-      <c r="AM20">
-        <v>1</v>
-      </c>
-      <c r="AN20">
-        <v>1</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>1</v>
-      </c>
-      <c r="AQ20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU20">
-        <v>0.03308433084330843</v>
-      </c>
-      <c r="AV20">
-        <v>1</v>
-      </c>
-      <c r="AW20">
-        <v>1</v>
-      </c>
-      <c r="AX20">
-        <v>1</v>
-      </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA20">
-        <v>9</v>
-      </c>
-      <c r="BC20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD20">
-        <v>0.003947791560213077</v>
-      </c>
-      <c r="BE20">
-        <v>1</v>
-      </c>
-      <c r="BF20">
-        <v>1</v>
-      </c>
-      <c r="BG20">
-        <v>0</v>
-      </c>
-      <c r="BH20">
-        <v>1</v>
-      </c>
-      <c r="BI20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ20">
-        <v>1</v>
-      </c>
-      <c r="BL20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BM20">
-        <v>0.03583195243201092</v>
-      </c>
-      <c r="BN20">
-        <v>1</v>
-      </c>
-      <c r="BO20">
-        <v>1</v>
-      </c>
-      <c r="BP20">
-        <v>1</v>
-      </c>
-      <c r="BQ20">
-        <v>0</v>
-      </c>
-      <c r="BR20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:71">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.002283065296274546</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21">
-        <v>0.002165370490111906</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>10</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T21">
-        <v>0.002629883267928406</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC21">
-        <v>0.02722836411379573</v>
-      </c>
-      <c r="AD21">
-        <v>1</v>
-      </c>
-      <c r="AE21">
-        <v>1</v>
-      </c>
-      <c r="AF21">
-        <v>1</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>10</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL21">
-        <v>0.003136771072653279</v>
-      </c>
-      <c r="AM21">
-        <v>1</v>
-      </c>
-      <c r="AN21">
-        <v>1</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>1</v>
-      </c>
-      <c r="AQ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>1</v>
-      </c>
-      <c r="AT21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU21">
-        <v>0.03244809371170634</v>
-      </c>
-      <c r="AV21">
-        <v>1</v>
-      </c>
-      <c r="AW21">
-        <v>1</v>
-      </c>
-      <c r="AX21">
-        <v>1</v>
-      </c>
-      <c r="AY21">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA21">
-        <v>10</v>
-      </c>
-      <c r="BC21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BD21">
-        <v>0.003947791560213077</v>
-      </c>
-      <c r="BE21">
-        <v>1</v>
-      </c>
-      <c r="BF21">
-        <v>1</v>
-      </c>
-      <c r="BG21">
-        <v>0</v>
-      </c>
-      <c r="BH21">
-        <v>1</v>
-      </c>
-      <c r="BI21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ21">
-        <v>1</v>
-      </c>
-      <c r="BL21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BM21">
-        <v>0.03514287642370303</v>
-      </c>
-      <c r="BN21">
-        <v>1</v>
-      </c>
-      <c r="BO21">
-        <v>1</v>
-      </c>
-      <c r="BP21">
-        <v>1</v>
-      </c>
-      <c r="BQ21">
-        <v>0</v>
-      </c>
-      <c r="BR21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:71">
-      <c r="J22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22">
-        <v>0.00203992143953313</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>21</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC22">
-        <v>0.0213555796970947</v>
-      </c>
-      <c r="AD22">
-        <v>1</v>
-      </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
-      <c r="AF22">
-        <v>1</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>21</v>
-      </c>
-      <c r="AT22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU22">
-        <v>0.02544948526408341</v>
-      </c>
-      <c r="AV22">
-        <v>1</v>
-      </c>
-      <c r="AW22">
-        <v>1</v>
-      </c>
-      <c r="AX22">
-        <v>1</v>
-      </c>
-      <c r="AY22">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA22">
-        <v>21</v>
-      </c>
-      <c r="BL22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BM22">
-        <v>0.0275630403323161</v>
-      </c>
-      <c r="BN22">
-        <v>1</v>
-      </c>
-      <c r="BO22">
-        <v>1</v>
-      </c>
-      <c r="BP22">
-        <v>1</v>
-      </c>
-      <c r="BQ22">
-        <v>0</v>
-      </c>
-      <c r="BR22" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:71">
-      <c r="J23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23">
-        <v>0.001583743073792124</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>61</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>1</v>
-      </c>
-      <c r="AE23">
-        <v>1</v>
-      </c>
-      <c r="AF23">
-        <v>1</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>61</v>
-      </c>
-      <c r="AT23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>1</v>
-      </c>
-      <c r="AW23">
-        <v>1</v>
-      </c>
-      <c r="AX23">
-        <v>1</v>
-      </c>
-      <c r="AY23">
-        <v>0</v>
-      </c>
-      <c r="AZ23" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA23">
-        <v>61</v>
-      </c>
-      <c r="BL23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BM23">
-        <v>0</v>
-      </c>
-      <c r="BN23">
-        <v>1</v>
-      </c>
-      <c r="BO23">
-        <v>1</v>
-      </c>
-      <c r="BP23">
-        <v>1</v>
-      </c>
-      <c r="BQ23">
-        <v>0</v>
-      </c>
-      <c r="BR23" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS23">
         <v>61</v>
       </c>
     </row>
